--- a/import_remboursable_test.xlsx
+++ b/import_remboursable_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ESI\2CP\S4\PRJP - Projet 2CPI\Repository\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELITEBOOK\Desktop\prologue\18 mai\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9094B8A1-3687-4A56-9E90-DF1826992E25}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDCFA93-045D-4574-8EDF-77AFA2751903}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="72">
   <si>
     <t>Nom</t>
   </si>
@@ -48,18 +48,12 @@
     <t>Montant en lettre</t>
   </si>
   <si>
-    <t>Date du Premier Paiment</t>
-  </si>
-  <si>
     <t>Durée du rembourssement (en mois)</t>
   </si>
   <si>
     <t>Mois 1</t>
   </si>
   <si>
-    <t>Suite</t>
-  </si>
-  <si>
     <t>Date du PV(année-mois-jour)</t>
   </si>
   <si>
@@ -99,49 +93,154 @@
     <t>Etat(Paiement régulier / Paiement retardé)</t>
   </si>
   <si>
-    <t>NIDAH</t>
-  </si>
-  <si>
-    <t>ilFod</t>
-  </si>
-  <si>
-    <t>57 01 44 000 366</t>
-  </si>
-  <si>
     <t>Social</t>
   </si>
   <si>
-    <t>Perte d'un proche</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
-    <t>2020-02-01</t>
-  </si>
-  <si>
-    <t>12000</t>
-  </si>
-  <si>
-    <t>2020-01-20</t>
-  </si>
-  <si>
-    <t>Douz mille dinar</t>
-  </si>
-  <si>
-    <t>2020-02-18</t>
-  </si>
-  <si>
     <t>10</t>
   </si>
   <si>
-    <t>1200</t>
-  </si>
-  <si>
     <t>Paiement régulier</t>
   </si>
   <si>
     <t>/</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>2019-06-01</t>
+  </si>
+  <si>
+    <t>Mois 11</t>
+  </si>
+  <si>
+    <t>Mois 12</t>
+  </si>
+  <si>
+    <t>Mois 13</t>
+  </si>
+  <si>
+    <t>Mois 14</t>
+  </si>
+  <si>
+    <t>Mois 15</t>
+  </si>
+  <si>
+    <t>Mois 16</t>
+  </si>
+  <si>
+    <t>Mois 17</t>
+  </si>
+  <si>
+    <t>Mois 18</t>
+  </si>
+  <si>
+    <t>Mois 19</t>
+  </si>
+  <si>
+    <t>Mois 20</t>
+  </si>
+  <si>
+    <t>Suite des mois</t>
+  </si>
+  <si>
+    <t>Date du Premier Paiement</t>
+  </si>
+  <si>
+    <t>TABAT</t>
+  </si>
+  <si>
+    <t>neSof</t>
+  </si>
+  <si>
+    <t>76 57 57 000 364</t>
+  </si>
+  <si>
+    <t>Arrivé d'un enfant</t>
+  </si>
+  <si>
+    <t>2020-01-01</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>2019-12-23</t>
+  </si>
+  <si>
+    <t>Quinz mille dinar</t>
+  </si>
+  <si>
+    <t>2020-01-18</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>HEZAO</t>
+  </si>
+  <si>
+    <t>ilKhe</t>
+  </si>
+  <si>
+    <t>74 17 86 002 244</t>
+  </si>
+  <si>
+    <t>LAVE VAISSELLE</t>
+  </si>
+  <si>
+    <t>Marriage</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>11000</t>
+  </si>
+  <si>
+    <t>2019-05-20</t>
+  </si>
+  <si>
+    <t>Onze mille dinar</t>
+  </si>
+  <si>
+    <t>2019-06-18</t>
+  </si>
+  <si>
+    <t>1100</t>
+  </si>
+  <si>
+    <t>DIBEL</t>
+  </si>
+  <si>
+    <t>raNor</t>
+  </si>
+  <si>
+    <t>75 29 33 001 056</t>
+  </si>
+  <si>
+    <t>2019-02-01</t>
+  </si>
+  <si>
+    <t>160000</t>
+  </si>
+  <si>
+    <t>2019-01-05</t>
+  </si>
+  <si>
+    <t>Cent soixante mille dinar</t>
+  </si>
+  <si>
+    <t>2019-02-18</t>
+  </si>
+  <si>
+    <t>16000</t>
+  </si>
+  <si>
+    <t>32000</t>
   </si>
 </sst>
 </file>
@@ -460,41 +559,43 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X2"/>
+  <dimension ref="A1:CNN4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V2" sqref="V2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5703125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.42578125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.54296875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.7265625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18.7265625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.453125" style="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="8" width="15.5703125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="15.54296875" style="1" customWidth="1"/>
     <col min="9" max="9" width="18" style="1" customWidth="1"/>
-    <col min="10" max="10" width="19.28515625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="25.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="34.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.5703125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="15.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" style="1" customWidth="1"/>
-    <col min="16" max="16" width="15.7109375" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15" style="1" customWidth="1"/>
-    <col min="19" max="19" width="11.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="11.5703125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="12" style="1" customWidth="1"/>
-    <col min="22" max="22" width="12.28515625" style="1" customWidth="1"/>
-    <col min="23" max="23" width="13.28515625" style="1" customWidth="1"/>
-    <col min="24" max="24" width="40.42578125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="23.54296875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.1796875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="34.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="41.81640625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="16.7265625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.7265625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="15.81640625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15" style="1" customWidth="1"/>
+    <col min="18" max="18" width="11.7265625" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.54296875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="12" style="1" customWidth="1"/>
+    <col min="21" max="21" width="12.26953125" style="1" customWidth="1"/>
+    <col min="22" max="22" width="13.26953125" style="1" customWidth="1"/>
+    <col min="23" max="23" width="9.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="33" width="9.1796875" style="1"/>
+    <col min="34" max="34" width="16.1796875" style="1" customWidth="1"/>
+    <col min="35" max="2406" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -502,7 +603,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -514,10 +615,10 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -526,120 +627,307 @@
         <v>6</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="X1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="E2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>37</v>
+      <c r="N3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="R3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="X3" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.35">
+      <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="R4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="V4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB4" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
